--- a/Best Practises/General guidelines and practise for every project.xlsx
+++ b/Best Practises/General guidelines and practise for every project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankush.bhardwaj\Desktop\Personal\Miscellaneous\Templates and best practises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankush.bhardwaj\Desktop\Personal\Miscellaneous\Best Practises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA05E5F-4CBC-4A43-A211-AAB34E57CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0411DD0-7984-44DB-900D-3DCD3057262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Main Point </t>
   </si>
@@ -42,9 +42,6 @@
     <t>Make the main working directory based on the TAMLEP folder structure</t>
   </si>
   <si>
-    <t>Adopt python best practise</t>
-  </si>
-  <si>
     <t>Prettier extension in VS Code</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Introduction at the beginning of the script with module name and the name of the developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config file for input variables </t>
+  </si>
+  <si>
+    <t>Adopt python best practises</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,38 +442,44 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
